--- a/Final Test Cases/DifficultTest Cases.xlsx
+++ b/Final Test Cases/DifficultTest Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb91a9f572235a6e/Desktop/ML4NLU Documentation/Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0666403A-8311-4B05-B378-27ABA7AAE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2ABCC67D-DF8F-4132-846C-19DC2B7B00E5}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{0666403A-8311-4B05-B378-27ABA7AAE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D41383A9-547D-4A6C-BBC6-9ADD855A05B0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>SrNo</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>https://www.codechef.com/problems/PNC</t>
   </si>
   <si>
     <t>Write a python program to print a below pattern, n is the input value. The pattern will be of the format 7x7
@@ -69,15 +66,6 @@
 XXXXXX</t>
   </si>
   <si>
-    <t>Prog A5</t>
-  </si>
-  <si>
-    <t>BDA A6</t>
-  </si>
-  <si>
-    <t>Prog A6</t>
-  </si>
-  <si>
     <t>Write a python code for this question. Consider a field array analogous to the scavenger hunt examples (i.e., it’s about repeatedly setting i=field[i]). However, all entries in the field are certainly so small that they can be used as an index for the field again. Every ‘scavenger hunt’ must therefore run in a loop at
 some point:
 With the values 4 2 1 1 5 5, for example, the following transitions occur in the array
@@ -99,21 +87,12 @@
     <t>Write a python code to implement the merge sort algorithm using recursion.</t>
   </si>
   <si>
-    <t>https://medium.com/co-learning-lounge/recursive-function-python-practice-examples-c37df75555e8</t>
-  </si>
-  <si>
     <t>Write a python code to solve below, We define the sigmoidal function σ(t) = 1 / (1 + e^(-t)). It has the derivative σ'(t) = σ(t) * (1 - σ(t)). The module gauss_newton contains a function generate_data(gamma=0) which generates a data set (ti, yi) where ti ∈ R and yi ∈ R with yi = σ(6ti + 1) + εi for i = 1, ..., 10. The values εi ~ N(0, 1) are independently normally distributed, and the real value β ∈ R controls the influence of εi.
 (i) Solve the problem:
 min x ∈ R^2 1/2 ||F(x)||^2,
 with Fi(x) = σ(x1 * ti + x2) - yi for i = 1, ..., 10 and γ = 0, using the Gauss-Newton algorithm as given in the lecture. Iterate until the size of the search direction is sufficiently small, i.e. until ||Δx|| &lt; δ for some tolerance δ &gt; 0. The solution is, of course, x̄ = (6, 1).
 (ii) Solve the above problem also for γ = 5e-2, 1e-3.
 (iii) Plot the norms of the search directions ||Δx|| against the iteration count k and use a logarithmic scale in the y-axis. How do the cases γ = 1e-1, 1e-3, 0 differ? Which behavior should be observed for γ = 0?</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/datasets/brendan45774/test-file</t>
-  </si>
-  <si>
-    <t>NO A8</t>
   </si>
   <si>
     <t>Implement the below in python:  Model different road users in a hierarchical structure. To do this, implement the following
@@ -166,12 +145,6 @@
 special protective clothing.</t>
   </si>
   <si>
-    <t>Prog A11</t>
-  </si>
-  <si>
-    <t>Prog A12</t>
-  </si>
-  <si>
     <t>b. Create a new view TennisResults that contains for all tennis matches the location,
 the last names of player1 and player2, and the number of sets won by player1 and
 number of sets won by player2. Edit the view. Add the columns PlayingHandPlayer1
@@ -202,16 +175,7 @@
 random country with CountryID between 1 and 17.</t>
   </si>
   <si>
-    <t>DB A10</t>
-  </si>
-  <si>
-    <t>DB A8</t>
-  </si>
-  <si>
     <t>SQL</t>
-  </si>
-  <si>
-    <t>References</t>
   </si>
   <si>
     <t>GPT3.5</t>
@@ -639,23 +603,60 @@
 		  }
 }</t>
   </si>
+  <si>
+    <t>(18)</t>
+  </si>
+  <si>
+    <t>(19)</t>
+  </si>
+  <si>
+    <t>Question References</t>
+  </si>
+  <si>
+    <t>(20)</t>
+  </si>
+  <si>
+    <t>(21)</t>
+  </si>
+  <si>
+    <t>(22)</t>
+  </si>
+  <si>
+    <t>(23)</t>
+  </si>
+  <si>
+    <t>(24)</t>
+  </si>
+  <si>
+    <t>(25)</t>
+  </si>
+  <si>
+    <t>(26)</t>
+  </si>
+  <si>
+    <t>(27)</t>
+  </si>
+  <si>
+    <t>(17)</t>
+  </si>
+  <si>
+    <t>(28)</t>
+  </si>
+  <si>
+    <t>(12)</t>
+  </si>
+  <si>
+    <t>(29)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -710,36 +711,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -753,6 +755,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,40 +1041,40 @@
     <col min="3" max="3" width="19.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="90.88671875" style="1" customWidth="1"/>
     <col min="5" max="9" width="21.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="51.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="51.88671875" style="8" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>30</v>
+      <c r="J1" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1078,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -1093,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
@@ -1107,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1122,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
@@ -1136,7 +1146,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1150,8 +1160,8 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>10</v>
+      <c r="J4" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1162,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1176,8 +1186,8 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>17</v>
+      <c r="J5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -1188,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1202,11 +1212,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1228,8 +1238,8 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>15</v>
+      <c r="J7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -1240,7 +1250,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1254,8 +1264,8 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>11</v>
+      <c r="J8" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="216" x14ac:dyDescent="0.3">
@@ -1266,7 +1276,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1280,8 +1290,8 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>18</v>
+      <c r="J9" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1292,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1306,8 +1316,8 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
+      <c r="J10" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1318,7 +1328,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -1332,8 +1342,8 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>21</v>
+      <c r="J11" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1341,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1358,8 +1368,8 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
+      <c r="J12" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1367,10 +1377,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1384,8 +1394,8 @@
       <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
+      <c r="J13" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1393,10 +1403,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1410,8 +1420,8 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
+      <c r="J14" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1419,10 +1429,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1436,8 +1446,8 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>28</v>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1445,10 +1455,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1462,8 +1472,8 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>28</v>
+      <c r="J16" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1471,10 +1481,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1487,6 +1497,9 @@
       </c>
       <c r="H17" s="1">
         <v>0</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1494,11 +1507,11 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
@@ -1510,6 +1523,9 @@
       </c>
       <c r="H18" s="1">
         <v>0</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -1517,10 +1533,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1534,8 +1550,8 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>27</v>
+      <c r="J19" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1543,10 +1559,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1560,8 +1576,8 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>27</v>
+      <c r="J20" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -1569,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1586,8 +1602,8 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>27</v>
+      <c r="J21" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1595,10 +1611,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1611,6 +1627,9 @@
       </c>
       <c r="H22" s="1">
         <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1618,10 +1637,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1634,6 +1653,9 @@
       </c>
       <c r="H23" s="1">
         <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1641,10 +1663,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
@@ -1657,6 +1679,9 @@
       </c>
       <c r="H24" s="1">
         <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1664,10 +1689,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1680,6 +1705,9 @@
       </c>
       <c r="H25" s="1">
         <v>1</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1687,10 +1715,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1703,6 +1731,9 @@
       </c>
       <c r="H26" s="1">
         <v>1</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
@@ -1710,22 +1741,25 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1733,10 +1767,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
@@ -1749,6 +1783,9 @@
       </c>
       <c r="H28" s="1">
         <v>0</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -1756,10 +1793,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
@@ -1772,6 +1809,9 @@
       </c>
       <c r="H29" s="1">
         <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1779,10 +1819,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
@@ -1795,6 +1835,9 @@
       </c>
       <c r="H30" s="1">
         <v>1</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -1802,51 +1845,48 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <f>SUM(E2:E31)</f>
         <v>9</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <f t="shared" ref="F32:H32" si="0">SUM(F2:F31)</f>
         <v>4</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{415E5624-3FB4-475E-AE10-0DBD5FCE5B14}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{9ED46F98-A2D7-4F4A-B2AD-C9DDACB1F434}"/>
-    <hyperlink ref="J6" r:id="rId3" xr:uid="{AF2D66B7-4F65-4364-B02B-2B9003FE573F}"/>
-    <hyperlink ref="J5" r:id="rId4" xr:uid="{B3F5F5D5-4B53-410D-A303-6967CCF7CE7D}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>